--- a/biology/Botanique/Carex_arenaria/Carex_arenaria.xlsx
+++ b/biology/Botanique/Carex_arenaria/Carex_arenaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Carex arenaria
 La laîche des sables (Carex arenaria) est une espèce de plantes psammophytes de la famille des Cyperaceae qui pousse dans les dunes et les pelouses sablonneuses du littoral européen. Elle est naturalisée en Amérique du Nord.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : marron
@@ -556,9 +570,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les tiges souterraines, assez minces, à croissance rapide, sont des rhizomes très développés qui peuvent s'étendre sur une longue distance (plusieurs mètres). Bien que les ramifications de ces rhizomes ne soient pas visibles, on peut les suivre littéralement à la trace, du fait de la présence de chapelets d'axes aériens feuillés qui les jalonnent sur toute la longueur. En se ramifiant, puis en se fragmentant, ces tiges particulières assurent une multiplication végétative active[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges souterraines, assez minces, à croissance rapide, sont des rhizomes très développés qui peuvent s'étendre sur une longue distance (plusieurs mètres). Bien que les ramifications de ces rhizomes ne soient pas visibles, on peut les suivre littéralement à la trace, du fait de la présence de chapelets d'axes aériens feuillés qui les jalonnent sur toute la longueur. En se ramifiant, puis en se fragmentant, ces tiges particulières assurent une multiplication végétative active.
 </t>
         </is>
       </c>
@@ -587,10 +603,12 @@
           <t>Utilisation médicinale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante contient de la silice, de la saponine, du tanin, des huiles essentielles et de la résine.
-La médecine populaire utilise le rhizome comme dépuratif, en cas de bronchite et de rhumatismes[2].
+La médecine populaire utilise le rhizome comme dépuratif, en cas de bronchite et de rhumatismes.
 </t>
         </is>
       </c>
